--- a/lab3/table1.xlsx
+++ b/lab3/table1.xlsx
@@ -456,7 +456,7 @@
         <v>0.32027184</v>
       </c>
       <c r="F2">
-        <v>101325</v>
+        <v>101352.972</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -476,7 +476,7 @@
         <v>0.95191908</v>
       </c>
       <c r="F3">
-        <v>101325</v>
+        <v>101352.972</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -496,7 +496,7 @@
         <v>1.36115532</v>
       </c>
       <c r="F4">
-        <v>101325</v>
+        <v>101352.972</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -516,7 +516,7 @@
         <v>2.67338022</v>
       </c>
       <c r="F5">
-        <v>101325</v>
+        <v>101352.972</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -536,7 +536,7 @@
         <v>4.212464339999999</v>
       </c>
       <c r="F6">
-        <v>101325</v>
+        <v>101352.972</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -556,7 +556,7 @@
         <v>5.20886562</v>
       </c>
       <c r="F7">
-        <v>101325</v>
+        <v>101352.972</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -576,7 +576,7 @@
         <v>7.335114780000001</v>
       </c>
       <c r="F8">
-        <v>101325</v>
+        <v>101352.972</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -596,7 +596,7 @@
         <v>10.230906</v>
       </c>
       <c r="F9">
-        <v>101325</v>
+        <v>101352.972</v>
       </c>
     </row>
   </sheetData>

--- a/lab3/table1.xlsx
+++ b/lab3/table1.xlsx
@@ -450,13 +450,13 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>111833.0072</v>
+        <v>111833.01</v>
       </c>
       <c r="E2">
-        <v>0.32027184</v>
+        <v>0.32</v>
       </c>
       <c r="F2">
-        <v>101352.972</v>
+        <v>102938.77</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -470,13 +470,13 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>130242.0164</v>
+        <v>130242.02</v>
       </c>
       <c r="E3">
-        <v>0.95191908</v>
+        <v>0.95</v>
       </c>
       <c r="F3">
-        <v>101352.972</v>
+        <v>102938.77</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -490,13 +490,13 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>143548.9032</v>
+        <v>143548.9</v>
       </c>
       <c r="E4">
-        <v>1.36115532</v>
+        <v>1.36</v>
       </c>
       <c r="F4">
-        <v>101352.972</v>
+        <v>102938.77</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -510,13 +510,13 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>192019.066</v>
+        <v>192019.07</v>
       </c>
       <c r="E5">
-        <v>2.67338022</v>
+        <v>2.67</v>
       </c>
       <c r="F5">
-        <v>101352.972</v>
+        <v>102938.77</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -530,13 +530,13 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>252072.4256</v>
+        <v>252072.43</v>
       </c>
       <c r="E6">
-        <v>4.212464339999999</v>
+        <v>4.21</v>
       </c>
       <c r="F6">
-        <v>101352.972</v>
+        <v>102938.77</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -550,13 +550,13 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>291648.348</v>
+        <v>291648.35</v>
       </c>
       <c r="E7">
-        <v>5.20886562</v>
+        <v>5.21</v>
       </c>
       <c r="F7">
-        <v>101352.972</v>
+        <v>102938.77</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -570,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="D8">
-        <v>375626.5248</v>
+        <v>375626.52</v>
       </c>
       <c r="E8">
-        <v>7.335114780000001</v>
+        <v>7.34</v>
       </c>
       <c r="F8">
-        <v>101352.972</v>
+        <v>102938.77</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -590,13 +590,13 @@
         <v>13</v>
       </c>
       <c r="D9">
-        <v>487735.3224</v>
+        <v>487735.32</v>
       </c>
       <c r="E9">
-        <v>10.230906</v>
+        <v>10.23</v>
       </c>
       <c r="F9">
-        <v>101352.972</v>
+        <v>102938.77</v>
       </c>
     </row>
   </sheetData>

--- a/lab3/table1.xlsx
+++ b/lab3/table1.xlsx
@@ -450,13 +450,13 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>111833.01</v>
+        <v>111833.007</v>
       </c>
       <c r="E2">
         <v>0.32</v>
       </c>
       <c r="F2">
-        <v>102938.77</v>
+        <v>102938.767</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -470,13 +470,13 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>130242.02</v>
+        <v>130242.016</v>
       </c>
       <c r="E3">
-        <v>0.95</v>
+        <v>0.952</v>
       </c>
       <c r="F3">
-        <v>102938.77</v>
+        <v>102938.767</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -490,13 +490,13 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>143548.9</v>
+        <v>143548.903</v>
       </c>
       <c r="E4">
-        <v>1.36</v>
+        <v>1.361</v>
       </c>
       <c r="F4">
-        <v>102938.77</v>
+        <v>102938.767</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -510,13 +510,13 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>192019.07</v>
+        <v>192019.066</v>
       </c>
       <c r="E5">
-        <v>2.67</v>
+        <v>2.673</v>
       </c>
       <c r="F5">
-        <v>102938.77</v>
+        <v>102938.767</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -530,13 +530,13 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>252072.43</v>
+        <v>252072.426</v>
       </c>
       <c r="E6">
-        <v>4.21</v>
+        <v>4.212</v>
       </c>
       <c r="F6">
-        <v>102938.77</v>
+        <v>102938.767</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -550,13 +550,13 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>291648.35</v>
+        <v>291648.348</v>
       </c>
       <c r="E7">
-        <v>5.21</v>
+        <v>5.209</v>
       </c>
       <c r="F7">
-        <v>102938.77</v>
+        <v>102938.767</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -570,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="D8">
-        <v>375626.52</v>
+        <v>375626.525</v>
       </c>
       <c r="E8">
-        <v>7.34</v>
+        <v>7.335</v>
       </c>
       <c r="F8">
-        <v>102938.77</v>
+        <v>102938.767</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -590,13 +590,13 @@
         <v>13</v>
       </c>
       <c r="D9">
-        <v>487735.32</v>
+        <v>487735.322</v>
       </c>
       <c r="E9">
-        <v>10.23</v>
+        <v>10.231</v>
       </c>
       <c r="F9">
-        <v>102938.77</v>
+        <v>102938.767</v>
       </c>
     </row>
   </sheetData>
